--- a/biology/Histoire de la zoologie et de la botanique/Robert_Stephen_Adamson/Robert_Stephen_Adamson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Stephen_Adamson/Robert_Stephen_Adamson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Stephen Adamson est un botaniste britannique, né le 2 mars 1885 à Manchester et mort le 6 novembre 1965 à Jedburgh.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études à Édimbourg (Master of Arts en 1906 et Doctorat of Sciences en 1907), il part compléter sa formation à l’université de Cambridge où il obtient un Master of Arts en 1912.
 Adamson enseigne à l’université de Manchester de 1912 à 1923. Il part alors occuper la chaire de botanique à l’université du Cap, où il a notamment pour élève John Phillip Harison Acocks. Il préside la Société royale d'Afrique du Sud de 1946 à 1948. Il prend sa retraite en 1950 et retourne en Grande-Bretagne.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vegetation of South Africa, Monographs of British Empire vegetation, London, 1938, xvi + 235 p.
 Notes on the vegetation of the Kamiesberg, Memoirs of the Botanical Survey of South Africa, Pretoria, 1938, 25 p.
@@ -575,7 +591,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Some Biogeographers, Evolutionists and Ecologists: Chrono-Biographical Sketches (consulté le 11 novembre 2008).</t>
         </is>
